--- a/Tesis/Resultados/AGTest10.xlsx
+++ b/Tesis/Resultados/AGTest10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eozeroy/Python/Aplicaciones/Tesis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eozeroy/Python/Aplicaciones/Tesis/Tesis/Resultados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1BD1CAF-4474-7147-BE53-C228524AEEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F8FDEE-D5F6-094E-AA58-B9461A087BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20100" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -151,7 +151,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -182,10 +182,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -201,6 +200,3249 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-MX"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Test18!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mejor Aptitud T18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Test18!$A$2:$A$394</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="393"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>393</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Test18!$B$2:$B$394</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="393"/>
+                <c:pt idx="0">
+                  <c:v>0.99984067448508229</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99984067448508229</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99984067448508229</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99985372047106003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99985520345277246</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99987308039721812</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99988793078692006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99988793078692006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99991207839897667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99991207839897667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99991207839897667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.99991272590285585</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.99991901328753152</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.99993394406049285</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.99993394406049285</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.99993510442342393</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.99993804526618646</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99993804526618646</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99994419822963188</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99994419822963188</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99994419822963188</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.99994457090046163</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.99994457090046163</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.99995099190339476</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.99995413280691325</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.99995768063734003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.99995768063734003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.99995768063734003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.99995823934243977</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.99996222367738063</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.99996241960469145</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.99996537420683651</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.99996537420683651</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.99996560863189587</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.99996673537741443</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.99996710049782855</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.99996829963541112</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.99996829963541112</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.99996854188658391</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.99996854188658391</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.99996854188658391</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.99996877631312842</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.99996976717275055</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.99996976717275055</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.99996976717275055</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.99997099554315072</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.99997099554315072</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.99997099554315072</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.99997158519427032</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.99997195884599166</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.9999744048250816</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.99997562006586449</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.99997562006586449</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.99997698200692242</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.99997698200692242</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.99997698200692242</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.99997781176476186</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.99998006066740597</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.99998006066740597</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.99998029504642238</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.99998029504642238</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.99998029504642238</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.99998056218554265</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.99998080704262415</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.99998103887495104</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.99998157751531414</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.99998157751531414</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.9999825479246206</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.9999825479246206</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.99998258487252067</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.99998307317583135</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.9999834561912917</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.99998466815429299</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.99998466815429299</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.99998467905091992</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.99998543670532103</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.99998679928962941</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.99998679928962941</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.99998679928962941</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.99998684317509323</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.99998763153173498</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.99998763153173498</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.99998763153173498</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.99998763153173498</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.99998787493598862</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.99998787493598862</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.99998789222692708</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.99998833100392193</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.99998833100392193</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.99998837351529901</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.99998860489949515</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.99998860489949515</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.9999887760155588</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.9999887760155588</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.9999891632485769</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.9999891632485769</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.99998940665357627</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.99998961818628318</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.99999099637037725</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99999099637037725</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.99999153521624562</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.99999153521624562</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.99999228578180277</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.99999294969705854</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.99999294969705854</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.99999294969705854</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.99999294969705854</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.99999294969705854</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.99999294969705854</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.99999308089719652</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.99999308089719652</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.99999308319477997</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.99999308319477997</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.99999321523489981</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.99999321523489981</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.99999321523489981</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.99999321523489981</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.99999347481770562</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.99999347481770562</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.99999419995541527</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.99999419995541527</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.99999472971175341</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.99999472971175341</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.99999472971175341</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.99999472971175341</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.99999472971175341</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.99999496594512605</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.99999496594512605</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.9999949731194625</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.9999949731194625</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.99999547611113515</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.99999547611113515</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.99999562343005044</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.99999562343005044</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.99999562343005044</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.99999562343005044</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.99999612642237734</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.99999612642237734</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.99999612642237734</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.99999612642237734</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.99999612642237734</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.99999632735689126</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.99999632735689126</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.99999632735689126</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.99999632735689126</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.99999632735689126</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.9999963341847834</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.99999635059722869</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.99999635059722869</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.99999645013982563</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.99999658117889045</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.99999665757053935</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.99999665757053935</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.99999670396188678</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.99999670396188678</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.99999670396188678</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.99999671078978403</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.99999691139270608</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.99999692340741253</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.99999692340741253</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.99999703417578389</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.99999704100368558</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.99999710267131936</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.999997139745889</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.999997139745889</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.99999714657379213</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.99999720824143901</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.99999720824143901</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.99999733616886599</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.99999733616886599</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.99999733616886599</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.99999733616886599</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.99999733830133686</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.99999740466444298</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.99999742790483037</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.9999975347243919</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.99999764735241448</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.99999764735241448</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.99999764735241448</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.99999764735241448</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.9999976541803246</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.9999976541803246</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.99999767059281308</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.99999767059281308</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.99999773209274134</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.99999773209274134</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.99999775470828345</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.99999777519232946</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.99999777519232946</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.99999777519232946</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.99999777519232946</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.99999779741917305</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.99999785993267798</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.99999787612706581</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.99999792525912645</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.99999792525912645</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.99999792525912645</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.99999792525912645</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.99999794145351639</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.99999797189423079</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.99999797189423079</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.99999797189423079</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.99999798317227628</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.99999804849874108</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.99999804849874108</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.99999804849874108</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.99999804849874108</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.99999804849874108</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.99999804849874108</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.99999806710892791</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.99999806710892791</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.99999807173915845</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.99999810198940264</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.99999810198940264</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.99999810198940264</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.99999810198940264</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.99999810198940264</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.99999810198940264</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.99999810198940264</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.99999811413184925</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.99999811413184925</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.99999815564112404</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.99999815805078696</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.99999815805078696</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.99999815805078696</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.99999815805078696</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.99999815805078696</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.9999982004434852</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.9999982004434852</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.9999982004434852</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.9999982004434852</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.99999820392513605</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.99999822489942169</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.99999822489942169</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.99999823194198589</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.99999823194198589</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.99999823194198589</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.99999827433469035</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.99999827433469035</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.99999828559372128</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.99999828581230943</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.99999831004966211</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.99999831026825026</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.99999831026825026</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.99999831026825026</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.99999831026825026</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.99999835507062529</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.99999835507062529</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.99999835507062529</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.99999835507062529</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.99999835507062529</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.9999984890624477</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.99999848928103596</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.99999848928103596</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.99999848928103596</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.99999848928103596</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0.99999859385008283</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0.99999859385008283</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0.99999859385008283</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0.99999859406867109</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0.99999859406867109</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0.99999859406867109</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0.99999859406867109</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0.99999859406867109</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0.99999859406867109</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0.99999863887107143</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0.99999863887107143</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0.99999863887107143</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>0.99999864800623217</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>0.99999864800623217</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>0.99999864852334142</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>0.99999864852334142</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>0.99999865787709086</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>0.99999865787709086</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0.99999865787709086</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>0.99999865787709086</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>0.99999870559224902</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>0.99999870559224902</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>0.99999870559224902</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>0.99999870581083727</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>0.99999871472741109</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>0.99999871494599946</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>0.99999871494599946</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0.99999871494599946</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>0.99999871494599946</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>0.99999877188073294</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>0.99999877188073294</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>0.99999877209932142</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>0.99999878123448449</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>0.99999878123448449</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>0.99999878123448449</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>0.99999878123448449</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>0.99999878123448449</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>0.99999878123448449</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>0.99999878123448449</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>0.99999878123448449</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>0.99999878123448449</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>0.99999878123448449</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>0.99999879770782707</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>0.99999879770782707</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>0.99999879770782707</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>0.99999879770782707</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>0.99999879770782707</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>0.99999879770782707</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>0.99999879770782707</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>0.99999897811292859</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>0.99999897811292859</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>0.99999897811292859</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>0.99999897811292859</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>0.99999897811292859</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>0.99999897811292859</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>0.99999897811292859</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>0.99999897811292859</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>0.99999897811292859</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>0.99999897811292859</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>0.99999897811292859</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>0.9999989784295924</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>0.9999989784295924</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>0.9999989784295924</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>0.9999989784295924</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>0.9999989784295924</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>0.9999989784295924</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>0.9999989784295924</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>0.9999989784295924</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>0.9999989784295924</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>0.9999989784295924</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>0.9999989784295924</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>0.9999989784295924</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>0.99999898418857347</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>0.99999907938730881</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>0.99999907938730881</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>0.99999907938730881</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>0.99999907938730881</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>0.99999907938730881</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>0.99999907938730881</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>0.9999990851462911</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>0.99999939386131065</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>0.99999949481911121</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>0.99999949481911121</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>0.99999949481911121</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>0.99999949481911121</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>0.99999949481911121</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>0.99999952693437977</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>0.99999952693437977</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>0.99999952693437977</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>0.99999953995679958</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>0.99999953995679958</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>0.99999953995679958</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>0.99999953995679958</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>0.99999953995679958</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>0.99999957207207102</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>0.99999957207207102</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>0.99999957207207102</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>0.99999957207207102</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>0.99999957207207102</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>0.99999957207207102</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>0.99999959339112532</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>0.99999959339112532</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>0.99999960694066847</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>0.99999960694066847</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>0.99999961861471265</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>0.99999961861471265</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>0.99999961861471265</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>0.99999961861471265</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>0.99999965072998942</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>0.99999966427953402</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>0.99999966427953402</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>0.99999966427953402</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>0.99999967369039344</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>0.99999967369039344</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>0.99999967369039344</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>0.99999967369039344</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>0.99999967369039344</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>0.99999967369039344</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>0.99999967369039344</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>0.99999967369039344</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>0.99999967369039344</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>0.99999967369039344</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>0.99999967369039344</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>0.99999967369039344</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>0.99999970121679604</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>0.99999970121679604</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>0.99999970121679604</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>0.99999970121679604</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>0.99999970121679604</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>0.99999970121679604</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>0.99999970121679604</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>0.99999970121679604</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>0.99999970121679604</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>0.99999970121679604</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>0.99999970121679604</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>0.99999970121679604</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>0.99999970121679604</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6CFD-0644-8960-51ADB4E4E022}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="315289535"/>
+        <c:axId val="315184191"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="315289535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="315184191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="315184191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="315289535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A23F8B99-BCAA-A4EC-4FDE-3DA0970C89F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -490,8 +3732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="A2:H2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -533,10 +3775,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2">
         <v>18</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>0.99999970121679604</v>
       </c>
       <c r="C2">
@@ -559,10 +3801,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3">
         <v>12</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>0.99999950933217352</v>
       </c>
       <c r="C3">
@@ -585,10 +3827,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>0.99999939137722405</v>
       </c>
       <c r="C4">
@@ -611,10 +3853,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>0.99999916409051237</v>
       </c>
       <c r="C5">
@@ -637,10 +3879,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>0.99999905698771641</v>
       </c>
       <c r="C6">
@@ -663,10 +3905,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7">
         <v>13</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>0.99999871956234099</v>
       </c>
       <c r="C7">
@@ -689,10 +3931,10 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8">
         <v>3</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>0.99999812420727052</v>
       </c>
       <c r="C8">
@@ -715,10 +3957,10 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>0.9999979980643473</v>
       </c>
       <c r="C9">
@@ -741,10 +3983,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="A10">
         <v>17</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>0.99999676411632898</v>
       </c>
       <c r="C10">
@@ -767,10 +4009,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>0.99999581800290716</v>
       </c>
       <c r="C11">
@@ -793,10 +4035,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="A12">
         <v>16</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>0.99999552994312568</v>
       </c>
       <c r="C12">
@@ -819,10 +4061,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="A13">
         <v>21</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>0.99999516443496006</v>
       </c>
       <c r="C13">
@@ -845,10 +4087,10 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>14</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>0.99999481966839043</v>
       </c>
       <c r="C14">
@@ -871,10 +4113,10 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="A15">
         <v>2</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>0.9999943150563444</v>
       </c>
       <c r="C15">
@@ -897,10 +4139,10 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="A16">
         <v>19</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>0.99999274783994252</v>
       </c>
       <c r="C16">
@@ -923,10 +4165,10 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>0.9999913345553777</v>
       </c>
       <c r="C17">
@@ -949,10 +4191,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="A18">
         <v>11</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>0.99998472864451338</v>
       </c>
       <c r="C18">
@@ -975,10 +4217,10 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="A19">
         <v>1</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>0.99998406719623567</v>
       </c>
       <c r="C19">
@@ -1001,10 +4243,10 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="A20">
         <v>7</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>0.99994279052555524</v>
       </c>
       <c r="C20">
@@ -1027,10 +4269,10 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="A21">
         <v>10</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>0.99992862065037325</v>
       </c>
       <c r="C21">
@@ -1053,10 +4295,10 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>0.9999120739484656</v>
       </c>
       <c r="C22">
@@ -35759,7 +39001,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:B394"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B394" sqref="A1:B394"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -38917,6 +42161,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
